--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value521.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value521.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.384323922853995</v>
+        <v>1.274482131004333</v>
       </c>
       <c r="B1">
-        <v>2.108192142804021</v>
+        <v>2.480945348739624</v>
       </c>
       <c r="C1">
-        <v>2.174462243982663</v>
+        <v>3.480561971664429</v>
       </c>
       <c r="D1">
-        <v>2.422184508357845</v>
+        <v>3.09826922416687</v>
       </c>
       <c r="E1">
-        <v>0.6608518840918131</v>
+        <v>1.067774653434753</v>
       </c>
     </row>
   </sheetData>
